--- a/import/奥迪大屏项目-数据结构_2017-05-09.xlsx
+++ b/import/奥迪大屏项目-数据结构_2017-05-09.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>sales</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,18 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奥迪Q5：15%；宝马3系：12%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥迪A3：30%；比亚迪秦：10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥迪A4L:23%；奔驰GLK300：35%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王小薇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +328,46 @@
   </si>
   <si>
     <t>2017年5月3日实现集客21090批，有效集客12000批，到店3000批，成交289台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intentvehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intentvehiclenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔驰GLK300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪A4L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪秦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪Q5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝马3系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量完成比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salefinish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -845,15 +873,15 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -898,10 +926,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -912,17 +940,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -940,8 +969,8 @@
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
+      <c r="B2" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C2">
         <v>25089</v>
@@ -951,7 +980,7 @@
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -962,7 +991,7 @@
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -973,7 +1002,7 @@
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5">
@@ -984,7 +1013,7 @@
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C6">
@@ -995,7 +1024,7 @@
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C7">
@@ -1006,7 +1035,7 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -1017,7 +1046,7 @@
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
@@ -1028,7 +1057,7 @@
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
@@ -1039,11 +1068,22 @@
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -1076,7 +1116,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1132,7 +1172,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>25089</v>
@@ -1228,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1282,7 +1322,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1349,78 +1389,143 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1441,18 +1546,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>12082</v>
@@ -1463,7 +1568,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>14509</v>
@@ -1474,7 +1579,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>9800</v>
@@ -1495,7 +1600,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1514,10 +1619,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
